--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag\Python_Codes\RPA_outlook_Python\Outlook Automation for Purchase Order Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF046DF-3E90-423E-8C91-2EF7FD85E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13383CFC-2181-4E7B-A927-D90F43E6C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{66FAA7EA-9201-4D83-9430-2CC1A6785757}"/>
+    <workbookView xWindow="5760" yWindow="36" windowWidth="17280" windowHeight="9912" xr2:uid="{66FAA7EA-9201-4D83-9430-2CC1A6785757}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,9 @@
     <t>Accounts</t>
   </si>
   <si>
-    <t>SaleAccount1@xyz.com,SaleAccount2@xyz.com,SaleAccount3@xyz.com</t>
-  </si>
-  <si>
     <t>Folders</t>
   </si>
   <si>
-    <t>SalesAcc1,SalesAcc2,SalesAcc3</t>
-  </si>
-  <si>
     <t>Main Sales Account</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
   </si>
   <si>
     <t>PO_to_process/</t>
+  </si>
+  <si>
+    <t>SalesAcc1;SalesAcc2;SalesAcc3</t>
+  </si>
+  <si>
+    <t>SaleAccount1@xyz.com;SaleAccount2@xyz.com;SaleAccount3@xyz.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,39 +439,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
